--- a/tests/testthat/fixtures/ex3/tables/irt_dich_booklet1.xlsx
+++ b/tests/testthat/fixtures/ex3/tables/irt_dich_booklet1.xlsx
@@ -495,16 +495,16 @@
         <v>13</v>
       </c>
       <c r="C2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D2" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="E2" t="n">
-        <v>76.38</v>
+        <v>77.02</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.4</v>
+        <v>-1.44</v>
       </c>
       <c r="G2" t="n">
         <v>0.1</v>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.05</v>
+        <v>-0.07</v>
       </c>
       <c r="J2" t="n">
         <v>0.26</v>
@@ -522,7 +522,7 @@
         <v>0.04</v>
       </c>
       <c r="L2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="3">
@@ -533,34 +533,34 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D3" t="n">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E3" t="n">
-        <v>42.17</v>
+        <v>41.74</v>
       </c>
       <c r="F3" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="G3" t="n">
         <v>0.09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.44</v>
+        <v>-0.22</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="K3" t="n">
         <v>0.02</v>
       </c>
       <c r="L3" t="n">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -571,34 +571,34 @@
         <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D4" t="n">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="E4" t="n">
-        <v>11.15</v>
+        <v>12.03</v>
       </c>
       <c r="F4" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="G4" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="H4" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01</v>
+        <v>-0.14</v>
       </c>
       <c r="J4" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="K4" t="n">
         <v>0.04</v>
       </c>
       <c r="L4" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5">
@@ -609,34 +609,34 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D5" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E5" t="n">
-        <v>75.76</v>
+        <v>75.95</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.35</v>
+        <v>-1.36</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I5" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="J5" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="L5" t="n">
-        <v>0.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="6">
@@ -647,19 +647,19 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D6" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E6" t="n">
-        <v>72.63</v>
+        <v>72.52</v>
       </c>
       <c r="F6" t="n">
         <v>-1.16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H6" t="n">
         <v>1.01</v>
@@ -674,7 +674,7 @@
         <v>0.03</v>
       </c>
       <c r="L6" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -685,34 +685,34 @@
         <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D7" t="n">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="E7" t="n">
-        <v>65.26</v>
+        <v>64.91</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.76</v>
+        <v>-0.74</v>
       </c>
       <c r="G7" t="n">
         <v>0.09</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.12</v>
+        <v>-0.25</v>
       </c>
       <c r="J7" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="K7" t="n">
         <v>0.02</v>
       </c>
       <c r="L7" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -723,34 +723,34 @@
         <v>25</v>
       </c>
       <c r="C8" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D8" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="E8" t="n">
-        <v>62.99</v>
+        <v>62.35</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.64</v>
+        <v>-0.61</v>
       </c>
       <c r="G8" t="n">
         <v>0.09</v>
       </c>
       <c r="H8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I8" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="J8" t="n">
         <v>0.23</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="L8" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
     </row>
   </sheetData>
@@ -798,25 +798,25 @@
         <v>33</v>
       </c>
       <c r="B2" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>4694</v>
+        <v>4761</v>
       </c>
       <c r="E2" t="n">
-        <v>4710</v>
+        <v>4777</v>
       </c>
       <c r="F2" t="n">
-        <v>4746</v>
+        <v>4813</v>
       </c>
       <c r="G2" t="n">
-        <v>0.493</v>
+        <v>0.497</v>
       </c>
       <c r="H2" t="n">
-        <v>0.26</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="3">
@@ -824,25 +824,25 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>4692</v>
+        <v>4757</v>
       </c>
       <c r="E3" t="n">
-        <v>4720</v>
+        <v>4785</v>
       </c>
       <c r="F3" t="n">
-        <v>4783</v>
+        <v>4849</v>
       </c>
       <c r="G3" t="n">
-        <v>0.497</v>
+        <v>0.505</v>
       </c>
       <c r="H3" t="n">
-        <v>0.266</v>
+        <v>0.293</v>
       </c>
     </row>
   </sheetData>
